--- a/oppdatert_budsjett.xlsx
+++ b/oppdatert_budsjett.xlsx
@@ -1,29 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11208"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/Droneteknologi/3_år/Bachelor/bach_test/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Fredrik\Desktop\Droneteknologi\bach_test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AA917770-EB9D-0E43-B6BC-7BCAA02BF998}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{8E66813D-3EEB-493F-B696-9B404C325182}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="440" yWindow="940" windowWidth="23900" windowHeight="14480" xr2:uid="{12C7EF9D-573F-4E9A-B276-50794D669FDE}"/>
+    <workbookView xWindow="435" yWindow="945" windowWidth="23895" windowHeight="14475" xr2:uid="{12C7EF9D-573F-4E9A-B276-50794D669FDE}"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="179017"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -188,17 +183,17 @@
     <t>elefun</t>
   </si>
   <si>
-    <t>Må bestilles</t>
-  </si>
-  <si>
     <t>Mottatt</t>
+  </si>
+  <si>
+    <t>MHM - 10/1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -210,14 +205,6 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -281,7 +268,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperkobling" xfId="1" builtinId="8"/>
@@ -600,17 +587,17 @@
   <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.6640625" customWidth="1"/>
-    <col min="2" max="2" width="20.33203125" customWidth="1"/>
-    <col min="3" max="3" width="17.5" customWidth="1"/>
+    <col min="1" max="1" width="19.7109375" customWidth="1"/>
+    <col min="2" max="2" width="20.28515625" customWidth="1"/>
+    <col min="3" max="3" width="17.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -630,12 +617,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>44</v>
       </c>
@@ -659,7 +646,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>43</v>
       </c>
@@ -683,7 +670,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>2</v>
       </c>
@@ -707,7 +694,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>3</v>
       </c>
@@ -731,7 +718,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>42</v>
       </c>
@@ -755,7 +742,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>4</v>
       </c>
@@ -779,7 +766,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>38</v>
       </c>
@@ -797,13 +784,13 @@
         <v>700</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H9" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>40</v>
       </c>
@@ -821,13 +808,13 @@
         <v>200</v>
       </c>
       <c r="G10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H10" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>5</v>
       </c>
@@ -851,7 +838,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B12" s="5" t="s">
         <v>6</v>
       </c>
@@ -875,7 +862,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B13" s="1" t="s">
         <v>41</v>
       </c>
@@ -896,7 +883,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B14" s="2" t="s">
         <v>31</v>
       </c>
@@ -908,14 +895,14 @@
         <v>14980</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="16" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
       <c r="D15" s="5"/>
       <c r="E15" s="5"/>
       <c r="F15" s="5"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B16" s="6" t="s">
         <v>45</v>
       </c>
@@ -923,12 +910,12 @@
         <v>500</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B19" s="4" t="s">
         <v>8</v>
       </c>
@@ -946,7 +933,7 @@
       </c>
       <c r="G19" s="3"/>
     </row>
-    <row r="20" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B20" s="2" t="s">
         <v>37</v>
       </c>
@@ -958,8 +945,8 @@
         <v>17630</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="16" thickTop="1" x14ac:dyDescent="0.2"/>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>47</v>
       </c>
@@ -973,7 +960,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>49</v>
       </c>
@@ -984,7 +971,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>51</v>
       </c>
